--- a/Project3-checkpoint1/doc/TODO.xlsx
+++ b/Project3-checkpoint1/doc/TODO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeang\Documents\GitHub\NTUST-Introduction-to-Computer-Graphics\Project3-checkpoint1\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F27EAB2-FD3E-4E99-B9F8-C96BABE39F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43E2A65-7AE7-4133-A415-40596D12FFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>File</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,6 +129,10 @@
   </si>
   <si>
     <t>Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -291,10 +295,24 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -302,10 +320,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -315,16 +329,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -608,7 +612,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -634,7 +638,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -643,69 +647,75 @@
       <c r="C2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="16"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:9" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A3" s="18"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="16"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="18"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="13" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="18"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="18"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="13" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="18"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="13" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A8" s="19"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
     </row>
     <row r="10" spans="1:9" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
@@ -715,49 +725,51 @@
       <c r="C10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="16"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
     </row>
     <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="19" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A13" s="18"/>
-      <c r="B13" s="14"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A14" s="19"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="16"/>
+      <c r="D14" s="13" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
       <c r="I15" s="4" t="s">
         <v>27</v>
       </c>
@@ -770,8 +782,8 @@
       <c r="C16" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="I16" s="15" t="s">
+      <c r="D16" s="13"/>
+      <c r="I16" s="12" t="s">
         <v>26</v>
       </c>
     </row>
